--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2613496.746721144</v>
+        <v>-2616429.25569046</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16424277.7021271</v>
+        <v>16424277.70212711</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>245.8771934875954</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>89.43666860162136</v>
       </c>
       <c r="D2" t="n">
-        <v>125.5547855635403</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>196.7563355406655</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -862,19 +862,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903397</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>294.9762176136676</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>11.67884460201102</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>156.2910000321266</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>105.8247259764142</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>234.4970761400735</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>405.3390013643703</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127575</v>
+        <v>408.3062316354152</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081954</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876462</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>64.44601915223804</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>81.37259901119261</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703271</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2488,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652781</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808189</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096048</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972055</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317882</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352486</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972057</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972046</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096051</v>
@@ -3478,19 +3478,19 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972037</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334.2319735460226</v>
+        <v>297.7490271198419</v>
       </c>
       <c r="C2" t="n">
-        <v>334.2319735460226</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D2" t="n">
         <v>207.4089578252748</v>
@@ -4325,22 +4325,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,10 +4352,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>1110.971145585956</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.8318136101443</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>365.8221612491146</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,10 +4647,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4747,25 +4747,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>716.3321714771301</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>502.0437482952929</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791649</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791649</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1461.147548391485</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1092.185031451073</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1092.185031451073</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>706.3967788528291</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649613</v>
+        <v>2316.676938649612</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.714421709201</v>
+        <v>1947.7144217092</v>
       </c>
       <c r="D11" t="n">
         <v>1589.44872310245</v>
       </c>
       <c r="E11" t="n">
-        <v>1203.660470504206</v>
+        <v>1203.660470504205</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2271357927212</v>
+        <v>792.6745657145977</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2440287091277</v>
+        <v>380.2440287091278</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5069,22 +5069,22 @@
         <v>4605.365889165442</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844762</v>
+        <v>4404.156740844761</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.713411564311</v>
+        <v>4150.71341156431</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.65052422074</v>
+        <v>3819.650524220739</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950626</v>
+        <v>3466.881868950625</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689546</v>
+        <v>3093.416110689545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713735</v>
+        <v>2703.276778713734</v>
       </c>
     </row>
     <row r="12">
@@ -5121,7 +5121,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>107.3188802952405</v>
       </c>
       <c r="L12" t="n">
         <v>107.3188802952405</v>
@@ -5179,13 +5179,13 @@
         <v>326.1278469160577</v>
       </c>
       <c r="D13" t="n">
-        <v>261.030857873393</v>
+        <v>176.011207503722</v>
       </c>
       <c r="E13" t="n">
-        <v>261.030857873393</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.030857873393</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5306,22 +5306,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5361,10 +5361,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,7 +5601,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5835,10 +5835,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,7 +6075,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.957531531934</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656834</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D25" t="n">
-        <v>656.964603115004</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942673</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580133</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345495</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H25" t="n">
-        <v>151.373419438404</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380732</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N25" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
         <v>2496.057455973197</v>
@@ -6169,28 +6169,28 @@
         <v>2639.297491717216</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.385329532433</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594057</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6312,7 +6312,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,7 +6379,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6388,19 +6388,19 @@
         <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,37 +6634,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
@@ -6844,22 +6844,22 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7023,7 +7023,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7257,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7309,31 +7309,31 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,28 +7564,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954142</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717214</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7825,16 +7825,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627881</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275.8362231693862</v>
       </c>
       <c r="D2" t="n">
-        <v>229.1282560571427</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22720,13 +22720,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229438</v>
+        <v>258.9088560886878</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.53704437734109</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.537044377342397</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>84.16945386597432</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537657</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788525</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>44.8352157236614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1416776.157212597</v>
+        <v>1416776.157212598</v>
       </c>
     </row>
     <row r="8">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936391.4095185975</v>
+        <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614951069</v>
+        <v>7852.63761495089</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>19427.71799363181</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.389644451905042e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95396.83018339481</v>
+        <v>95396.83018339486</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718221</v>
+        <v>5759.938886718168</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670489</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="J4" t="n">
         <v>13058.4518647639</v>
       </c>
       <c r="K4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="L4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="L4" t="n">
-        <v>13058.45186476389</v>
-      </c>
       <c r="M4" t="n">
+        <v>13058.45186476392</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="O4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="N4" t="n">
-        <v>13058.45186476391</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>13058.4518647639</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13058.45186476391</v>
       </c>
     </row>
     <row r="5">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768223.7874613488</v>
+        <v>-768686.6193251136</v>
       </c>
       <c r="C6" t="n">
-        <v>-283923.583991141</v>
+        <v>-283923.5839911409</v>
       </c>
       <c r="D6" t="n">
         <v>-283923.583991141</v>
       </c>
       <c r="E6" t="n">
-        <v>-1043057.307183792</v>
+        <v>-1043093.510037487</v>
       </c>
       <c r="F6" t="n">
-        <v>-114042.7600405287</v>
+        <v>-114077.4979659641</v>
       </c>
       <c r="G6" t="n">
-        <v>-106190.1224255776</v>
+        <v>-106224.8603510132</v>
       </c>
       <c r="H6" t="n">
-        <v>-106190.1224255775</v>
+        <v>-106224.8603510132</v>
       </c>
       <c r="I6" t="n">
-        <v>-135650.2857123112</v>
+        <v>-135650.2857123111</v>
       </c>
       <c r="J6" t="n">
-        <v>-292645.7869112723</v>
+        <v>-292645.7869112722</v>
       </c>
       <c r="K6" t="n">
         <v>-116222.5677186793</v>
       </c>
       <c r="L6" t="n">
-        <v>-116222.5677186792</v>
+        <v>-116222.5677186793</v>
       </c>
       <c r="M6" t="n">
         <v>-240431.0784267378</v>
@@ -26561,7 +26561,7 @@
         <v>-116222.5677186793</v>
       </c>
       <c r="P6" t="n">
-        <v>-116222.5677186794</v>
+        <v>-116222.5677186793</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.501110429875551e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203975</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203968</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>136.8566481758851</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>172.9747651378036</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>111.8998281280439</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>134.9863473781468</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>56.69292621882474</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,14 +27859,14 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>250.5850457095848</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>106.3208129736047</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>52.02592219651751</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="26">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>151.4800422544284</v>
       </c>
       <c r="L12" t="n">
-        <v>152.1929830599435</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504301</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.267838362266</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32795,31 +32795,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33743,10 +33743,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307146</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>13.63860328006937</v>
       </c>
       <c r="L12" t="n">
-        <v>13.63860328006937</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284117</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402477</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
         <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,10 +37087,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37476,7 +37476,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
